--- a/biology/Médecine/Nédocromil/Nédocromil.xlsx
+++ b/biology/Médecine/Nédocromil/Nédocromil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9docromil</t>
+          <t>Nédocromil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le nédocromil, est vendu entre autres sous la marque Alocil[1].
+Le nédocromil, est vendu entre autres sous la marque Alocil.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9docromil</t>
+          <t>Nédocromil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un stabilisateur de mastocytes, qui diminue la libération d'histamine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un stabilisateur de mastocytes, qui diminue la libération d'histamine.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9docromil</t>
+          <t>Nédocromil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter la conjonctivite allergique [1]. Le médicament est utilisé comme collyre [2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter la conjonctivite allergique . Le médicament est utilisé comme collyre .
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9docromil</t>
+          <t>Nédocromil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent des maux de tête, des yeux irrités et un nez bouché[1]. Il n’existe aucune preuve d’effet nocif lié à son utilisation de ce médicament pendant la grossesse[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent des maux de tête, des yeux irrités et un nez bouché. Il n’existe aucune preuve d’effet nocif lié à son utilisation de ce médicament pendant la grossesse. 
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9docromil</t>
+          <t>Nédocromil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament  a été approuvé pour un usage médical aux États-Unis en 1999[1]. Aux États-Unis, il en coûte environ 230 dollars américains pour un flacon de 5 ml[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament  a été approuvé pour un usage médical aux États-Unis en 1999. Aux États-Unis, il en coûte environ 230 dollars américains pour un flacon de 5 ml.
 </t>
         </is>
       </c>
